--- a/resources/experiment 1/metrics/MAPE/incidence/Fallo Cardiaco (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Fallo Cardiaco (INC).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59917706715738.75</v>
+        <v>59917706715738.73</v>
       </c>
       <c r="C2" t="n">
-        <v>59917706715738.75</v>
+        <v>59917706715738.74</v>
       </c>
       <c r="D2" t="n">
-        <v>59917706715738.75</v>
+        <v>59917706715738.74</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34516539165363.63</v>
+        <v>41582531770713.63</v>
       </c>
       <c r="C3" t="n">
-        <v>34516539165363.63</v>
+        <v>41610723317676.81</v>
       </c>
       <c r="D3" t="n">
-        <v>34516539165363.63</v>
+        <v>46177753925714.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30818867445070.59</v>
+        <v>51001528979309.88</v>
       </c>
       <c r="C4" t="n">
-        <v>30818867445070.59</v>
+        <v>51129895334717.09</v>
       </c>
       <c r="D4" t="n">
-        <v>30818867445070.59</v>
+        <v>49340241390407.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49640561023393.77</v>
+        <v>79099859590571.61</v>
       </c>
       <c r="C5" t="n">
-        <v>49640561023393.77</v>
+        <v>52788620692140.96</v>
       </c>
       <c r="D5" t="n">
-        <v>49640561023393.77</v>
+        <v>69048803814534.45</v>
       </c>
     </row>
   </sheetData>
